--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-19T08:32:40+00:00</t>
+    <t>2024-04-22T07:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T07:26:57+00:00</t>
+    <t>2024-04-22T07:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T07:52:09+00:00</t>
+    <t>2024-04-22T09:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T13:59:04+00:00</t>
+    <t>2024-04-22T14:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:39:57+00:00</t>
+    <t>2024-04-22T15:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>ELEMENT D'ADMINISTRATION'</t>
+    <t>ELEMENT ADMINISTRATION</t>
   </si>
   <si>
     <t>Event</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T15:15:59+00:00</t>
+    <t>2024-04-23T15:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -784,7 +784,7 @@
     <t>MedicationDispense will be used to indicate waste.</t>
   </si>
   <si>
-    <t>Lien classe COMPTE RENDU D'ADMINISTRATION</t>
+    <t>COMPTE RENDU D'ADMINISTRATION</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1283,7 +1283,7 @@
     <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.</t>
   </si>
   <si>
-    <t>Id. élément prescription</t>
+    <t>ELEMENT PRESCRIPTION</t>
   </si>
   <si>
     <t>Event.basedOn</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T15:10:46+00:00</t>
+    <t>2024-04-24T09:25:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T09:25:28+00:00</t>
+    <t>2024-04-29T13:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
